--- a/Assets/Scenarios/Fall Leon.xlsx
+++ b/Assets/Scenarios/Fall Leon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickw/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AId4Children\Assets\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF5DEC-0FA3-314E-81C0-2E04F9C97401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951323D6-CB04-4F41-927D-584A830D313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="2760" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{C1FDECDA-4A91-C14D-A3EE-CF9D13C981E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C1FDECDA-4A91-C14D-A3EE-CF9D13C981E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Kindeswohlmatrix" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,20 +692,20 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -719,7 +719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -1099,17 +1099,17 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
